--- a/Data/Kisaveikkaus_2023 – ella.xlsx
+++ b/Data/Kisaveikkaus_2023 – ella.xlsx
@@ -94,13 +94,13 @@
     <t xml:space="preserve">Norja</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandra popp</t>
+    <t xml:space="preserve">Alex popp</t>
   </si>
   <si>
     <t xml:space="preserve">Saksa</t>
   </si>
   <si>
-    <t xml:space="preserve">Smith</t>
+    <t xml:space="preserve">Sophie Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Usa</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Irlanti</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodman</t>
+    <t xml:space="preserve">Trinity Rodman</t>
   </si>
   <si>
     <t xml:space="preserve">Englanti</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Kanada</t>
   </si>
   <si>
-    <t xml:space="preserve">Bronze</t>
+    <t xml:space="preserve">Lucy Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">Ruotsi</t>
@@ -629,24 +629,24 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.59"/>
   </cols>
   <sheetData>
@@ -2258,7 +2258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2281,7 +2281,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/Kisaveikkaus_2023 – ella.xlsx
+++ b/Data/Kisaveikkaus_2023 – ella.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Saksa</t>
   </si>
   <si>
-    <t xml:space="preserve">Sophie Smith</t>
+    <t xml:space="preserve">Sophia Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Usa</t>
@@ -629,24 +629,24 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.59"/>
   </cols>
   <sheetData>
@@ -2258,7 +2258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2281,7 +2281,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/Kisaveikkaus_2023 – ella.xlsx
+++ b/Data/Kisaveikkaus_2023 – ella.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Norja</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex popp</t>
+    <t xml:space="preserve">Alex Popp</t>
   </si>
   <si>
     <t xml:space="preserve">Saksa</t>
@@ -629,10 +629,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -2258,7 +2258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2281,7 +2281,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
